--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Chiffre affaire HT type client.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Chiffre affaire HT type client.xlsx
@@ -547,10 +547,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -875,7 +878,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,26 +908,26 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
